--- a/OULAD/oulad_results.xlsx
+++ b/OULAD/oulad_results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxva\Documents\Werk en stage\PhD\Dissertation\Learning Analytics\HITL Swarm\github\OULAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20E75E7-D905-4CA9-BD1B-AAEB74F2016A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D192672-2123-47F5-A53A-03CE3F28447A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="FLAM" sheetId="6" r:id="rId2"/>
+    <sheet name="FLAME" sheetId="6" r:id="rId2"/>
     <sheet name="pass fail" sheetId="2" r:id="rId3"/>
     <sheet name="fail distinction" sheetId="3" r:id="rId4"/>
     <sheet name="pass distinction" sheetId="4" r:id="rId5"/>
@@ -367,7 +367,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -1498,7 +1498,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
